--- a/biology/Botanique/Citrus_sinensis/Citrus_sinensis.xlsx
+++ b/biology/Botanique/Citrus_sinensis/Citrus_sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus sinensis
-L’oranger (Citrus sinensis (L.) Osbeck, 1765) est une espèce d'arbustes fruitiers de la famille des Rutacées. Cultivé dans les régions chaudes, comme les pays méditerranéens par exemple, cet hybride ancien est probablement un croisement entre le pamplemousse et la mandarine. Ses fruits sucrés et comestibles sont les oranges; les proportions relatives des gènes ancestraux dans l'orange douce sont d'environ 42 % pomelo et 58 % mandarine[2].
+L’oranger (Citrus sinensis (L.) Osbeck, 1765) est une espèce d'arbustes fruitiers de la famille des Rutacées. Cultivé dans les régions chaudes, comme les pays méditerranéens par exemple, cet hybride ancien est probablement un croisement entre le pamplemousse et la mandarine. Ses fruits sucrés et comestibles sont les oranges; les proportions relatives des gènes ancestraux dans l'orange douce sont d'environ 42 % pomelo et 58 % mandarine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oranger est un arbuste sempervirent, pouvant atteindre 10 mètres de haut, avec des branches épineuses et des feuilles de 4 à 10 cm de long. Il est originaire de l'Asie du Sud-Est, soit de l'Inde, soit du Viêt Nam ou du sud de la Chine. Le fruit du Citrus sinensis est appelé orange douce pour le distinguer de l'orange amère, fruit du Citrus aurantium ou bigaradier (oranger amer), des fleurs duquel on tire l'essence de néroli et l'eau de fleur d'oranger. Tous les agrumes sont considérés comme des baies, parce qu'ils sont charnus, contiennent de nombreuses graines et dérivent d'un ovaire unique.
 </t>
@@ -543,7 +557,9 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture des orangers a une grande importance économique aux États-Unis, en particulier dans les États de Floride et de Californie, au Portugal ainsi que dans plusieurs pays méditerranéens (Espagne, Italie, Grèce, Maroc), en Afrique du Sud, en Chine et en Australie (Nouvelle-Galles du Sud).
 </t>
@@ -574,11 +590,13 @@
           <t>Les orangers, plantes médicinales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les orangers peuvent être considérés comme des plantes médicinales[3].
-On utilise en phytothérapie des extraits de leurs fleurs, de leurs feuilles et de leur fruits et en aromathérapie les huiles essentielles distillées à partir des fleurs (huile essentielle de Néroli), des feuilles et des jeunes rameaux (huile essentielle de petit-grain), des écorces des fruits (huile essentielle d'orange). Ces huiles essentielles sont digestives et apaisantes, mais elles peuvent provoquer une photo-dermite quand on les applique sur la peau et que l'on s'expose au soleil[4].
-On extrait également des alcaloïdes (comme la synéphrine) à partir de l'écorce de l'orange amère qui entrent dans la composition de compléments alimentaires à visée amaigrissante. Des études récentes ont montré que ces extraits « amaigrissant » présentaient plus de risque pour la santé que d'intérêt pour maigrir[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les orangers peuvent être considérés comme des plantes médicinales.
+On utilise en phytothérapie des extraits de leurs fleurs, de leurs feuilles et de leur fruits et en aromathérapie les huiles essentielles distillées à partir des fleurs (huile essentielle de Néroli), des feuilles et des jeunes rameaux (huile essentielle de petit-grain), des écorces des fruits (huile essentielle d'orange). Ces huiles essentielles sont digestives et apaisantes, mais elles peuvent provoquer une photo-dermite quand on les applique sur la peau et que l'on s'expose au soleil.
+On extrait également des alcaloïdes (comme la synéphrine) à partir de l'écorce de l'orange amère qui entrent dans la composition de compléments alimentaires à visée amaigrissante. Des études récentes ont montré que ces extraits « amaigrissant » présentaient plus de risque pour la santé que d'intérêt pour maigrir.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les agrumes font partie du genre Citrus et ont fait l'objet de nombreux croisements. On peut donc considérer qu'il n'y a qu'une seule « super espèce » qui inclut les citronniers, les limettiers et les orangers. Néanmoins, des noms spécifiques ont été donnés à chacun des membres de la famille des agrumes, les oranges portant le nom de Citrus sinensis (L.) Osbeck ou Citrus aurantium var. sinensis L.
 L'oranger doux a d'abord été cultivé au Portugal, ramené de Chine lors des Grandes découvertes (d'où le nom πορτοκάλι (portokali) en grec et برتقال (burtuqaal) en arabe), puis en Espagne et c'est désormais la variété d'oranger la plus largement cultivée dans le monde.
@@ -646,7 +666,9 @@
           <t>Cultivars, hybrides et mutants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les citranges sont des hybrides d'oranger doux et de Poncirus trifoliata principalement utilisés comme porte-greffe.
 Les Tangor sont des hybrides de Citrus ×tangerina et de l'oranger doux.
